--- a/public/file/人员管理-导入人员模板.xlsx
+++ b/public/file/人员管理-导入人员模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ktzx2\smarttt_foreend\public\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\下载\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A902B3-27CA-4074-93AE-D0A72B7D69A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125EBAFB-6D46-4F57-B8A4-DCCBACA176DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5434" yWindow="3899" windowWidth="19562" windowHeight="7213" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5774" yWindow="4238" windowWidth="19562" windowHeight="8953" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <r>
       <rPr>
@@ -148,30 +148,15 @@
     <t>无</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>工号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/学号</t>
-    </r>
+    <t>教师/学生</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>教师/学生</t>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号：教师为工号，学生为学号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +193,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,12 +229,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,9 +250,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -724,18 +737,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -767,7 +781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -787,7 +801,7 @@
         <v>1362349273</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -798,9 +812,48 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="4" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.15">
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/file/人员管理-导入人员模板.xlsx
+++ b/public/file/人员管理-导入人员模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\下载\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\ktzx2\smarttt-master\smarttt_foreend\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125EBAFB-6D46-4F57-B8A4-DCCBACA176DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BF0290-B8CD-4D1D-8012-2A2CC0F5901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5774" yWindow="4238" windowWidth="19562" windowHeight="8953" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +211,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +263,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +752,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="12.9" x14ac:dyDescent="0.15"/>
@@ -749,7 +761,7 @@
     <col min="11" max="11" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="28.55" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,6 +791,9 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -814,9 +829,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.15">
-      <c r="K4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
